--- a/tests/reg_self_tests/D_02_Excel_Python_Regression_Testing_Tool/02_example_file_for_testing.xlsx
+++ b/tests/reg_self_tests/D_02_Excel_Python_Regression_Testing_Tool/02_example_file_for_testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHENW\projects\raven\tests\framework\D_02_Excel_Python_Regression_Testing_Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHENW\projects\raven\tests\reg_self_tests\D_02_Excel_Python_Regression_Testing_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD0B3EB-BBA7-4F10-B070-2CEF5187846B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F831F-E46C-4603-9E9D-C959748B4781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3017" yWindow="3017" windowWidth="16457" windowHeight="9549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simluation_Tool_Example" sheetId="3" r:id="rId1"/>
@@ -829,12 +829,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="5" width="20.7265625" customWidth="1"/>
+    <col min="1" max="5" width="20.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -851,7 +851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -870,7 +870,7 @@
         <v>-400000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -912,7 +912,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -933,7 +933,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -954,7 +954,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -975,7 +975,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -996,7 +996,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>258040000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1796839982.2464976</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1336,13 +1336,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>400000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>180000000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -1446,20 +1446,20 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="1" max="3" width="15.69140625" customWidth="1"/>
+    <col min="4" max="4" width="2.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1796839982.2464976</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
